--- a/storage/app/templates/cost_template.xlsx
+++ b/storage/app/templates/cost_template.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t xml:space="preserve">nama biaya</t>
+    <t xml:space="preserve">NAMA BIAYA</t>
   </si>
   <si>
     <t xml:space="preserve">UMUM</t>
@@ -35,11 +35,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -56,13 +57,26 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2A6099"/>
+        <bgColor rgb="FF666699"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -99,8 +113,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -113,6 +131,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF2A6099"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -124,16 +202,16 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1:B2"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.65"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
